--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,19 +461,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>30031523</t>
+          <t>30031750</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Сормово</t>
+          <t>Балахна</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>14959</v>
       </c>
       <c r="E2" t="n">
-        <v>81570</v>
+        <v>39004</v>
       </c>
     </row>
     <row r="3">
@@ -482,19 +482,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>30031518</t>
+          <t>30031522</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Семенов_МБ</t>
+          <t>Городец</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3152</v>
       </c>
       <c r="E3" t="n">
-        <v>114120</v>
+        <v>128453</v>
       </c>
     </row>
     <row r="4">
@@ -503,57 +503,57 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>30031519</t>
+          <t>30031517</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Правдинск</t>
+          <t>Заволжье</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>489</v>
+        <v>10935</v>
       </c>
       <c r="E4" t="n">
-        <v>19210</v>
+        <v>128700</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>30031524</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Омега</t>
+          <t>Карусель</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>329894</v>
+        <v>81508</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>30031520</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Мончага</t>
+          <t>Корабли</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12266</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>56520</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -562,19 +562,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>30031525</t>
+          <t>30031516</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Манго</t>
+          <t>Куб</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>29928</v>
       </c>
       <c r="E7" t="n">
-        <v>10870</v>
+        <v>125300</v>
       </c>
     </row>
     <row r="8">
@@ -583,19 +583,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>30031516</t>
+          <t>30031525</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Куб</t>
+          <t>Манго</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>29928</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>125300</v>
+        <v>10620</v>
       </c>
     </row>
     <row r="9">
@@ -604,19 +604,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>30031524</t>
+          <t>30031520</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Карусель</t>
+          <t>Мончага</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>12266</v>
       </c>
       <c r="E9" t="n">
-        <v>81508</v>
+        <v>56520</v>
       </c>
     </row>
     <row r="10">
@@ -625,40 +625,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>30031517</t>
+          <t>none</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Заволжье</t>
+          <t>Озон</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10935</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>128700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>30031522</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Городец</t>
+          <t>Омега</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3152</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>128453</v>
+        <v>321764</v>
       </c>
     </row>
     <row r="12">
@@ -667,19 +663,61 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>30031750</t>
+          <t>30031519</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Балахна</t>
+          <t>Правдинск</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>14959</v>
+        <v>489</v>
       </c>
       <c r="E12" t="n">
-        <v>38104</v>
+        <v>19210</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>30031518</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Семенов_МБ</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>114120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>30031523</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Сормово</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>81570</v>
       </c>
     </row>
   </sheetData>
